--- a/صيدليات دكتور مصطفي طلعت_2026-01-04_12-34.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-04_12-34.xlsx
@@ -123,6 +123,12 @@
   </si>
   <si>
     <t>1:2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEVILOB AMLO 5/5MG  30TAB</t>
+  </si>
+  <si>
+    <t>0:2</t>
   </si>
   <si>
     <t>NEVXAL 0.1% EYE DPS. 5 ML</t>
@@ -1386,17 +1392,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>24.960000000000001</v>
+        <v>46</v>
       </c>
       <c r="M26" s="9"/>
       <c r="N26" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1404,7 +1410,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1412,17 +1418,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>87</v>
+        <v>24.960000000000001</v>
       </c>
       <c r="M27" s="9"/>
       <c r="N27" s="10">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1444,11 +1450,11 @@
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="M28" s="9"/>
       <c r="N28" s="10">
-        <v>0.17000000000000001</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1464,17 +1470,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="M29" s="9"/>
       <c r="N29" s="10">
-        <v>1</v>
+        <v>0.17000000000000001</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1482,7 +1488,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1496,7 +1502,7 @@
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="10">
@@ -1508,7 +1514,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1516,13 +1522,13 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="M31" s="9"/>
       <c r="N31" s="10">
@@ -1542,13 +1548,13 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="M32" s="9"/>
       <c r="N32" s="10">
@@ -1560,7 +1566,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1568,13 +1574,13 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="M33" s="9"/>
       <c r="N33" s="10">
@@ -1586,7 +1592,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1594,17 +1600,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>168</v>
+        <v>23</v>
       </c>
       <c r="M34" s="9"/>
       <c r="N34" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1620,17 +1626,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>74.689999999999998</v>
+        <v>168</v>
       </c>
       <c r="M35" s="9"/>
       <c r="N35" s="10">
-        <v>0.20000000000000001</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1638,7 +1644,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1646,17 +1652,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>128</v>
+        <v>74.689999999999998</v>
       </c>
       <c r="M36" s="9"/>
       <c r="N36" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1664,7 +1670,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1672,17 +1678,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="M37" s="9"/>
       <c r="N37" s="10">
-        <v>0.5</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1690,7 +1696,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1698,17 +1704,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M38" s="9"/>
       <c r="N38" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1724,17 +1730,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>102.59999999999999</v>
+        <v>17</v>
       </c>
       <c r="M39" s="9"/>
       <c r="N39" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1742,7 +1748,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1750,13 +1756,13 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>40</v>
+        <v>102.59999999999999</v>
       </c>
       <c r="M40" s="9"/>
       <c r="N40" s="10">
@@ -1768,7 +1774,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1776,7 +1782,7 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
@@ -1786,7 +1792,7 @@
       </c>
       <c r="M41" s="9"/>
       <c r="N41" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1794,7 +1800,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1802,17 +1808,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="M42" s="9"/>
       <c r="N42" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1834,11 +1840,11 @@
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="M43" s="9"/>
       <c r="N43" s="10">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -1854,17 +1860,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="M44" s="9"/>
       <c r="N44" s="10">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -1872,7 +1878,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -1880,17 +1886,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="M45" s="9"/>
       <c r="N45" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -1912,11 +1918,11 @@
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="M46" s="9"/>
       <c r="N46" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -1938,7 +1944,7 @@
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="M47" s="9"/>
       <c r="N47" s="10">
@@ -1946,37 +1952,63 @@
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
-      <c r="K48" s="11">
-        <v>3082.9200000000001</v>
-      </c>
-      <c r="L48" s="11"/>
-      <c r="M48" s="11"/>
-      <c r="N48" s="11"/>
-    </row>
-    <row r="49" ht="17.25" customHeight="1">
-      <c t="s" r="A49" s="12">
+      <c r="A48" s="6">
+        <v>45</v>
+      </c>
+      <c t="s" r="B48" s="7">
         <v>70</v>
       </c>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c t="s" r="F49" s="13">
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c t="s" r="H48" s="8">
         <v>71</v>
       </c>
-      <c r="G49" s="13"/>
-      <c r="H49" s="14"/>
-      <c t="s" r="I49" s="15">
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="9">
+        <v>30</v>
+      </c>
+      <c r="M48" s="9"/>
+      <c r="N48" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="K49" s="11">
+        <v>3128.9200000000001</v>
+      </c>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+    </row>
+    <row r="50" ht="16.5" customHeight="1">
+      <c t="s" r="A50" s="12">
         <v>72</v>
       </c>
-      <c r="J49" s="15"/>
-      <c r="K49" s="15"/>
-      <c r="L49" s="15"/>
-      <c r="M49" s="15"/>
-      <c r="N49" s="15"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c t="s" r="F50" s="13">
+        <v>73</v>
+      </c>
+      <c r="G50" s="13"/>
+      <c r="H50" s="14"/>
+      <c t="s" r="I50" s="15">
+        <v>74</v>
+      </c>
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="15"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="143">
+  <mergeCells count="146">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2116,10 +2148,13 @@
     <mergeCell ref="B47:G47"/>
     <mergeCell ref="H47:K47"/>
     <mergeCell ref="L47:M47"/>
-    <mergeCell ref="K48:N48"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="I49:N49"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="I50:N50"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
